--- a/Chart_Data.xlsx
+++ b/Chart_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Projects\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Demo Chart Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,12 +440,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
